--- a/medicine/Médecine vétérinaire/Philippe_Maupas/Philippe_Maupas.xlsx
+++ b/medicine/Médecine vétérinaire/Philippe_Maupas/Philippe_Maupas.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Philippe Maupas, né le 30 juin 1939 à Toulon (Var) et mort le 6 février 1981 à Tours (Indre-et-Loire), est un virologue français.
-Il est connu pour avoir mis au point le premier vaccin contre l'hépatite B en 1976, ce qui faisait de lui un candidat potentiel au prix Nobel de physiologie ou médecine[1].
+Il est connu pour avoir mis au point le premier vaccin contre l'hépatite B en 1976, ce qui faisait de lui un candidat potentiel au prix Nobel de physiologie ou médecine.
 </t>
         </is>
       </c>
@@ -512,14 +524,16 @@
           <t>Carrière</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">De formation très éclectique, Philippe Maupas a obtenu de nombreux diplômes :
-diplôme d’État de docteur en médecine vétérinaire obtenu à l'école nationale vétérinaire de Toulouse en 1965[2] ;
-diplôme d’État de docteur en pharmacie obtenu à l'université de Tours en 1970[3] ;
-doctorat universitaire en sciences, obtenu à l'université de Poitiers en 1970[3] ;
-diplôme d’État de docteur en médecine humaine, obtenu à l'université de Tours en 1976[3].
-Il fut professeur de microbiologie et doyen de la faculté de pharmacie de Tours. La faculté de sciences pharmaceutiques de Tours a pris le nom de Philippe Maupas le 8 février 1996[4]. Philippe Maupas faisait ses cours en amphithéâtre sans note et n'utilisait pas le micro.[réf. nécessaire] Précédé d'une réputation scientifique lors de son arrivée à la faculté de médecine de Tours (où il a obtenu son doctorat en médecine), il savait captiver les étudiants grâce à une élocution claire et une voix forte. Sa disparition a laissé un grand vide. Il était apprécié et aimé des étudiants.
+diplôme d’État de docteur en médecine vétérinaire obtenu à l'école nationale vétérinaire de Toulouse en 1965 ;
+diplôme d’État de docteur en pharmacie obtenu à l'université de Tours en 1970 ;
+doctorat universitaire en sciences, obtenu à l'université de Poitiers en 1970 ;
+diplôme d’État de docteur en médecine humaine, obtenu à l'université de Tours en 1976.
+Il fut professeur de microbiologie et doyen de la faculté de pharmacie de Tours. La faculté de sciences pharmaceutiques de Tours a pris le nom de Philippe Maupas le 8 février 1996. Philippe Maupas faisait ses cours en amphithéâtre sans note et n'utilisait pas le micro.[réf. nécessaire] Précédé d'une réputation scientifique lors de son arrivée à la faculté de médecine de Tours (où il a obtenu son doctorat en médecine), il savait captiver les étudiants grâce à une élocution claire et une voix forte. Sa disparition a laissé un grand vide. Il était apprécié et aimé des étudiants.
 Philippe Maupas meurt dans un accident de la route le 6 février 1981.
 </t>
         </is>
@@ -549,12 +563,14 @@
           <t>Le vaccin contre l'hépatite B</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les travaux scientifiques marquants de Philippe Maupas concernent le virus de l'hépatite B : 
-découverte du premier vaccin contre l'hépatite B et application à la prévention de cette maladie chez l'homme (1976). L'originalité de ce vaccin réside dans la nature et la source de l'antigène vaccinal qui est préparé à partir de l'antigène Hbs extrait du plasma sanguin  des porteurs du virus de l'hépatite B et inactivé par le formol. Le vaccin a été expérimenté pour la première fois au service d'hémodialyse du CHU de Tours. Dans la grande tradition pastorienne, Maupas et ses collaborateurs se sont d'abord injecté mutuellement la préparation vaccinale[5]. Ce type de vaccin est encore utilisé de nos jours mais la plupart des vaccins actuels sont fabriqués par la technologie de l'ADN recombinant ;
-confirmation de la relation étiologique entre le virus de l'hépatite B et le cancer primitif du foie. À la suite des résultats de la vaccination contre l'hépatite B en France, Ph. Maupas entreprend avec le doyen L. Diop Mar un programme de recherche médicale « Prévention Hépatite - Hépatome » au Sénégal, pays de forte endémie d'hépatite B[6].
-Il a également travaillé sur les zoonoses en particulier la fièvre aphteuse[7].
+découverte du premier vaccin contre l'hépatite B et application à la prévention de cette maladie chez l'homme (1976). L'originalité de ce vaccin réside dans la nature et la source de l'antigène vaccinal qui est préparé à partir de l'antigène Hbs extrait du plasma sanguin  des porteurs du virus de l'hépatite B et inactivé par le formol. Le vaccin a été expérimenté pour la première fois au service d'hémodialyse du CHU de Tours. Dans la grande tradition pastorienne, Maupas et ses collaborateurs se sont d'abord injecté mutuellement la préparation vaccinale. Ce type de vaccin est encore utilisé de nos jours mais la plupart des vaccins actuels sont fabriqués par la technologie de l'ADN recombinant ;
+confirmation de la relation étiologique entre le virus de l'hépatite B et le cancer primitif du foie. À la suite des résultats de la vaccination contre l'hépatite B en France, Ph. Maupas entreprend avec le doyen L. Diop Mar un programme de recherche médicale « Prévention Hépatite - Hépatome » au Sénégal, pays de forte endémie d'hépatite B.
+Il a également travaillé sur les zoonoses en particulier la fièvre aphteuse.
 </t>
         </is>
       </c>
@@ -583,7 +599,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Notices d'autorité : VIAF ISNI BnF (données) IdRef LCCN Belgique Pays-Bas NUKAT Australie WorldCat 
 (en) Nivet H, Drucker J, Dubois F, Goudeau A, Coursaget P, Rolland JC, Grenier B, Maupas P., « Vaccine against hepatitis B in children : prevention of hepatitis in a pediatric hemodialysis unit », Int J Pediatr Nephrol., vol. 3, no 1,‎ 1982 mar, p. 25-8
